--- a/prep_data/Functional_data_SLC6A1_v1.xlsx
+++ b/prep_data/Functional_data_SLC6A1_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefana4/Dropbox/My Mac (lri-107959.local)/Desktop/SLC6A1-portal_data-collect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefana4/Dropbox/My Mac (lri-107959.local)/Desktop/projects/2021-10_Web-Portals/SLC6A1/SLC6A1_Portal/prep_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68E3707-54B9-7D44-B3CB-899461A31158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6A87C-C5BB-D849-A941-AADBB883C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="-19500" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional_data_template" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>Mermer et al, 2018</t>
+    <t>Mermer et al, 2021</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V3" sqref="V2:V23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
